--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\KUL Master\ApplicatieAchitecturen\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12D4D54-2694-4FB4-8345-B21430CBEDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE100AF-6F97-4EFD-8951-A325AFB6DB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Burger functie</t>
+  </si>
+  <si>
+    <t>Scan functie</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -548,9 +551,15 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44532</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\KULMaster\ApplicatieAchitecturen\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE100AF-6F97-4EFD-8951-A325AFB6DB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07496D60-F0AD-4854-A0B2-FDE07EB4571E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
+    <workbookView xWindow="19090" yWindow="-2320" windowWidth="38620" windowHeight="21820" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Scan functie</t>
+  </si>
+  <si>
+    <t>Beheer</t>
+  </si>
+  <si>
+    <t>Faulty login fix</t>
+  </si>
+  <si>
+    <t>Swing applicatie</t>
   </si>
 </sst>
 </file>
@@ -529,7 +538,9 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" s="6">
         <v>44525</v>
       </c>
@@ -563,21 +574,39 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44533</v>
+      </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44534</v>
+      </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44539</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\KULMaster\ApplicatieAchitecturen\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07496D60-F0AD-4854-A0B2-FDE07EB4571E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3B6129-C301-4C40-975B-59470C88F8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-2320" windowWidth="38620" windowHeight="21820" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Swing applicatie</t>
+  </si>
+  <si>
+    <t>Swing werkend + update scanfuncties + opmaak</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,6 +157,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
@@ -472,7 +478,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -609,10 +615,16 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44552</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.5</v>
+      </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3B6129-C301-4C40-975B-59470C88F8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA6031-F26E-4D7A-BFCD-8718C6DF3D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-2320" windowWidth="38620" windowHeight="21820" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Swing werkend + update scanfuncties + opmaak</t>
+  </si>
+  <si>
+    <t>Update dosissen + "terugknop" scannen + functie certificaten toevoegen</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -627,10 +630,16 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44553</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA6031-F26E-4D7A-BFCD-8718C6DF3D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4916137-071D-417A-8FDF-FCDF88D18811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-2320" windowWidth="38620" windowHeight="21820" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -73,6 +82,21 @@
   </si>
   <si>
     <t>Update dosissen + "terugknop" scannen + functie certificaten toevoegen</t>
+  </si>
+  <si>
+    <t>Certificaten aanpassen: UI + backend</t>
+  </si>
+  <si>
+    <t>Beheer aanpassen naar eisen van de product owner</t>
+  </si>
+  <si>
+    <t>Finalizing functionality</t>
+  </si>
+  <si>
+    <t>Adding comments</t>
+  </si>
+  <si>
+    <t>Finalizing + Adding comments</t>
   </si>
 </sst>
 </file>
@@ -481,13 +505,13 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="1" max="1" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
     <col min="3" max="3" width="27.09765625" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
@@ -642,34 +666,66 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44556</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6">
+        <v>44561</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44565</v>
+      </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44565</v>
+      </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44567</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.5</v>
+      </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
